--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Ra1856111678444c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rc779bb5e4eb241f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rc779bb5e4eb241f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R37c6fe2f9ca548e6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R37c6fe2f9ca548e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R0177002357ce4a4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R0177002357ce4a4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rd52bcf8fb40e45f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rd52bcf8fb40e45f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R78123b157244469f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R78123b157244469f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R222ffdecb31347de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R222ffdecb31347de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rbd37ffe0a2634004"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rbd37ffe0a2634004"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R87d3d3695e564ae1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R87d3d3695e564ae1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R30ac575eedbe4a4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R30ac575eedbe4a4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R686f3d6cf65c46df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R686f3d6cf65c46df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3a95f4c8d26c4c1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3a95f4c8d26c4c1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rbc3b0d40b72f4e74"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/025_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rbc3b0d40b72f4e74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3d2914b9d6a747cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
